--- a/ColumnDescriptions.xlsx
+++ b/ColumnDescriptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jmichaelconsulting1.sharepoint.com/sites/JMCEmployees/Shared Documents/General/01.JMC/01.Accounts/CDC/Engagements/FY 2021_BAA-Topic 8/Artifacts/PHA4GE artifacts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://phila-my.sharepoint.com/personal/vincent_tu_phila_gov/Documents/MetadataSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{33892139-1C2E-4487-ADBF-A1AC50153339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="13692" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleMetadataTemplateReadMe" sheetId="2" r:id="rId1"/>
@@ -1683,25 +1683,25 @@
   <dimension ref="A1:AE910"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.5546875" customWidth="1"/>
-    <col min="2" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="53.44140625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="150.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.54296875" customWidth="1"/>
+    <col min="2" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="53.453125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="150.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="20"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1"/>
       <c r="F1" s="23"/>
     </row>
-    <row r="2" spans="1:29" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" s="24" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>195</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" s="13" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>253</v>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
     </row>
-    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>254</v>
       </c>
@@ -1799,7 +1799,7 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>331</v>
       </c>
@@ -1840,7 +1840,7 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>255</v>
       </c>
@@ -1881,7 +1881,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>256</v>
       </c>
@@ -1920,7 +1920,7 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>257</v>
       </c>
@@ -1959,7 +1959,7 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>258</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>259</v>
       </c>
@@ -2039,7 +2039,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>260</v>
       </c>
@@ -2078,7 +2078,7 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>261</v>
       </c>
@@ -2119,7 +2119,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>262</v>
       </c>
@@ -2158,7 +2158,7 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="40" t="s">
         <v>329</v>
       </c>
@@ -2199,7 +2199,7 @@
       <c r="AB14" s="12"/>
       <c r="AC14" s="12"/>
     </row>
-    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>332</v>
       </c>
@@ -2240,7 +2240,7 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
     </row>
-    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>333</v>
       </c>
@@ -2283,7 +2283,7 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
     </row>
-    <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>334</v>
       </c>
@@ -2324,7 +2324,7 @@
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
     </row>
-    <row r="18" spans="1:29" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>335</v>
       </c>
@@ -2365,7 +2365,7 @@
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
     </row>
-    <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>263</v>
       </c>
@@ -2406,7 +2406,7 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
     </row>
-    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>264</v>
       </c>
@@ -2447,7 +2447,7 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
     </row>
-    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>0</v>
       </c>
@@ -2488,7 +2488,7 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
     </row>
-    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>1</v>
       </c>
@@ -2529,7 +2529,7 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
     </row>
-    <row r="23" spans="1:29" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36" t="s">
         <v>265</v>
       </c>
@@ -2570,7 +2570,7 @@
       <c r="AB23" s="12"/>
       <c r="AC23" s="12"/>
     </row>
-    <row r="24" spans="1:29" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>266</v>
       </c>
@@ -2609,7 +2609,7 @@
       <c r="AB24" s="12"/>
       <c r="AC24" s="12"/>
     </row>
-    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>267</v>
       </c>
@@ -2648,7 +2648,7 @@
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
     </row>
-    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>268</v>
       </c>
@@ -2687,7 +2687,7 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>269</v>
       </c>
@@ -2726,7 +2726,7 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
     </row>
-    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>270</v>
       </c>
@@ -2765,7 +2765,7 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>271</v>
       </c>
@@ -2804,7 +2804,7 @@
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
     </row>
-    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>272</v>
       </c>
@@ -2843,7 +2843,7 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
     </row>
-    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>273</v>
       </c>
@@ -2882,7 +2882,7 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
     </row>
-    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>274</v>
       </c>
@@ -2921,7 +2921,7 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
     </row>
-    <row r="33" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>275</v>
       </c>
@@ -2960,7 +2960,7 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
     </row>
-    <row r="34" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>276</v>
       </c>
@@ -2999,7 +2999,7 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
     </row>
-    <row r="35" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>277</v>
       </c>
@@ -3038,7 +3038,7 @@
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
     </row>
-    <row r="36" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
         <v>278</v>
       </c>
@@ -3077,7 +3077,7 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
     </row>
-    <row r="37" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>279</v>
       </c>
@@ -3116,7 +3116,7 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
     </row>
-    <row r="38" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>280</v>
       </c>
@@ -3155,7 +3155,7 @@
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
     </row>
-    <row r="39" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
         <v>281</v>
       </c>
@@ -3194,7 +3194,7 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
     </row>
-    <row r="40" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
         <v>282</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
     </row>
-    <row r="41" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
         <v>336</v>
       </c>
@@ -3272,7 +3272,7 @@
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
     </row>
-    <row r="42" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
         <v>337</v>
       </c>
@@ -3313,7 +3313,7 @@
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
     </row>
-    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
         <v>283</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
     </row>
-    <row r="44" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
         <v>284</v>
       </c>
@@ -3391,7 +3391,7 @@
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
     </row>
-    <row r="45" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20" t="s">
         <v>285</v>
       </c>
@@ -3432,7 +3432,7 @@
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
     </row>
-    <row r="46" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>286</v>
       </c>
@@ -3471,7 +3471,7 @@
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
     </row>
-    <row r="47" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>287</v>
       </c>
@@ -3514,7 +3514,7 @@
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
     </row>
-    <row r="48" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>288</v>
       </c>
@@ -3555,7 +3555,7 @@
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
     </row>
-    <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
         <v>289</v>
       </c>
@@ -3596,7 +3596,7 @@
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
     </row>
-    <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>290</v>
       </c>
@@ -3637,7 +3637,7 @@
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
     </row>
-    <row r="51" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="20" t="s">
         <v>291</v>
       </c>
@@ -3676,7 +3676,7 @@
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
     </row>
-    <row r="52" spans="1:29" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>338</v>
       </c>
@@ -3715,7 +3715,7 @@
       <c r="AB52" s="12"/>
       <c r="AC52" s="12"/>
     </row>
-    <row r="53" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20" t="s">
         <v>292</v>
       </c>
@@ -3754,7 +3754,7 @@
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>293</v>
       </c>
@@ -3793,7 +3793,7 @@
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="20" t="s">
         <v>294</v>
       </c>
@@ -3832,7 +3832,7 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
     </row>
-    <row r="56" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" ht="14" x14ac:dyDescent="0.3">
       <c r="A56" s="20" t="s">
         <v>295</v>
       </c>
@@ -3871,7 +3871,7 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="20" t="s">
         <v>296</v>
       </c>
@@ -3910,7 +3910,7 @@
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
     </row>
-    <row r="58" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" ht="14" x14ac:dyDescent="0.3">
       <c r="A58" s="20" t="s">
         <v>112</v>
       </c>
@@ -3949,7 +3949,7 @@
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A59" s="20" t="s">
         <v>297</v>
       </c>
@@ -3988,7 +3988,7 @@
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
         <v>298</v>
       </c>
@@ -4027,7 +4027,7 @@
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="s">
         <v>299</v>
       </c>
@@ -4066,7 +4066,7 @@
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
         <v>300</v>
       </c>
@@ -4105,7 +4105,7 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A63" s="20" t="s">
         <v>301</v>
       </c>
@@ -4144,7 +4144,7 @@
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="20" t="s">
         <v>339</v>
       </c>
@@ -4183,7 +4183,7 @@
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A65" s="20" t="s">
         <v>340</v>
       </c>
@@ -4222,7 +4222,7 @@
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="20" t="s">
         <v>341</v>
       </c>
@@ -4261,7 +4261,7 @@
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A67" s="20" t="s">
         <v>342</v>
       </c>
@@ -4300,7 +4300,7 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>302</v>
       </c>
@@ -4339,7 +4339,7 @@
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A69" s="20" t="s">
         <v>303</v>
       </c>
@@ -4378,7 +4378,7 @@
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
         <v>304</v>
       </c>
@@ -4417,7 +4417,7 @@
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A71" s="20" t="s">
         <v>305</v>
       </c>
@@ -4456,7 +4456,7 @@
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
         <v>306</v>
       </c>
@@ -4495,7 +4495,7 @@
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
     </row>
-    <row r="73" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" ht="14" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
         <v>307</v>
       </c>
@@ -4534,7 +4534,7 @@
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
     </row>
-    <row r="74" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" ht="14" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
         <v>308</v>
       </c>
@@ -4573,7 +4573,7 @@
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A75" s="20" t="s">
         <v>309</v>
       </c>
@@ -4612,7 +4612,7 @@
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
     </row>
-    <row r="76" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" ht="14" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
         <v>310</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A77" s="20" t="s">
         <v>311</v>
       </c>
@@ -4667,7 +4667,7 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A78" s="20" t="s">
         <v>312</v>
       </c>
@@ -4706,7 +4706,7 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
     </row>
-    <row r="79" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" ht="14" x14ac:dyDescent="0.3">
       <c r="A79" s="20" t="s">
         <v>313</v>
       </c>
@@ -4745,7 +4745,7 @@
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A80" s="20" t="s">
         <v>314</v>
       </c>
@@ -4784,7 +4784,7 @@
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A81" s="20" t="s">
         <v>315</v>
       </c>
@@ -4823,7 +4823,7 @@
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
     </row>
-    <row r="82" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A82" s="20" t="s">
         <v>316</v>
       </c>
@@ -4862,7 +4862,7 @@
       <c r="AB82" s="15"/>
       <c r="AC82" s="15"/>
     </row>
-    <row r="83" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A83" s="20" t="s">
         <v>317</v>
       </c>
@@ -4901,7 +4901,7 @@
       <c r="AB83" s="15"/>
       <c r="AC83" s="15"/>
     </row>
-    <row r="84" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" ht="14" x14ac:dyDescent="0.3">
       <c r="A84" s="20" t="s">
         <v>318</v>
       </c>
@@ -4940,7 +4940,7 @@
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A85" s="20" t="s">
         <v>319</v>
       </c>
@@ -4979,7 +4979,7 @@
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A86" s="20" t="s">
         <v>320</v>
       </c>
@@ -5018,7 +5018,7 @@
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
     </row>
-    <row r="87" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" ht="14" x14ac:dyDescent="0.3">
       <c r="A87" s="20" t="s">
         <v>321</v>
       </c>
@@ -5057,7 +5057,7 @@
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A88" s="20" t="s">
         <v>322</v>
       </c>
@@ -5096,7 +5096,7 @@
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A89" s="20" t="s">
         <v>323</v>
       </c>
@@ -5135,7 +5135,7 @@
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A90" s="20" t="s">
         <v>2</v>
       </c>
@@ -5174,7 +5174,7 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
     </row>
-    <row r="91" spans="1:29" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" s="13" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="20" t="s">
         <v>324</v>
       </c>
@@ -5213,7 +5213,7 @@
       <c r="AB91" s="12"/>
       <c r="AC91" s="12"/>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A92" s="20" t="s">
         <v>325</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="93" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A93" s="20" t="s">
         <v>326</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" ht="13" x14ac:dyDescent="0.3">
       <c r="A94" s="20" t="s">
         <v>344</v>
       </c>
@@ -5394,7 +5394,7 @@
       <c r="Z98" s="3"/>
       <c r="AA98" s="3"/>
     </row>
-    <row r="99" spans="1:27" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" s="13" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="34"/>
       <c r="B99" s="34"/>
       <c r="C99" s="34"/>
@@ -5423,7 +5423,7 @@
       <c r="Z99" s="12"/>
       <c r="AA99" s="12"/>
     </row>
-    <row r="100" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -5452,7 +5452,7 @@
       <c r="Z100" s="12"/>
       <c r="AA100" s="12"/>
     </row>
-    <row r="101" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -5481,7 +5481,7 @@
       <c r="Z101" s="12"/>
       <c r="AA101" s="12"/>
     </row>
-    <row r="102" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -5510,7 +5510,7 @@
       <c r="Z102" s="12"/>
       <c r="AA102" s="12"/>
     </row>
-    <row r="103" spans="1:27" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" s="13" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -5539,7 +5539,7 @@
       <c r="Z103" s="12"/>
       <c r="AA103" s="12"/>
     </row>
-    <row r="104" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -5626,7 +5626,7 @@
       <c r="Z106" s="12"/>
       <c r="AA106" s="12"/>
     </row>
-    <row r="107" spans="1:27" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" s="13" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="34"/>
       <c r="B107" s="34"/>
       <c r="C107" s="34"/>
@@ -26400,20 +26400,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Date xmlns="00d59416-304c-40f6-b640-d9cf62213f8e" xsi:nil="true"/>
-    <Topic xmlns="00d59416-304c-40f6-b640-d9cf62213f8e" xsi:nil="true"/>
-    <Presenter xmlns="00d59416-304c-40f6-b640-d9cf62213f8e" xsi:nil="true"/>
-    <TaxCatchAll xmlns="dd880e59-59d1-4913-9e13-e5a3bb50f76a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00d59416-304c-40f6-b640-d9cf62213f8e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E6A93E05219D2A4080D2584D4BE012F6" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29af3f0780c384e5386463da3985c9ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00d59416-304c-40f6-b640-d9cf62213f8e" xmlns:ns3="dd880e59-59d1-4913-9e13-e5a3bb50f76a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7281a675b74f3b6a73579de50c223cf9" ns2:_="" ns3:_="">
     <xsd:import namespace="00d59416-304c-40f6-b640-d9cf62213f8e"/>
@@ -26686,6 +26672,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Date xmlns="00d59416-304c-40f6-b640-d9cf62213f8e" xsi:nil="true"/>
+    <Topic xmlns="00d59416-304c-40f6-b640-d9cf62213f8e" xsi:nil="true"/>
+    <Presenter xmlns="00d59416-304c-40f6-b640-d9cf62213f8e" xsi:nil="true"/>
+    <TaxCatchAll xmlns="dd880e59-59d1-4913-9e13-e5a3bb50f76a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00d59416-304c-40f6-b640-d9cf62213f8e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -26696,17 +26696,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F9B9949-024E-474D-B58D-43B5D5EAD1A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00d59416-304c-40f6-b640-d9cf62213f8e"/>
-    <ds:schemaRef ds:uri="dd880e59-59d1-4913-9e13-e5a3bb50f76a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D27AA7DF-57BE-4453-B9F2-0B1344D6892F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26725,6 +26714,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F9B9949-024E-474D-B58D-43B5D5EAD1A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00d59416-304c-40f6-b640-d9cf62213f8e"/>
+    <ds:schemaRef ds:uri="dd880e59-59d1-4913-9e13-e5a3bb50f76a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36542CD0-6E76-47AA-86F9-3D3ABF9C49C0}">
   <ds:schemaRefs>
